--- a/docs/StructureDefinition-saner-supporting-device.xlsx
+++ b/docs/StructureDefinition-saner-supporting-device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="333">
   <si>
     <t>Path</t>
   </si>
@@ -128,7 +128,10 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>Mapping: UDI Mapping</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
   <si>
     <t/>
@@ -140,20 +143,17 @@
     <t>*</t>
   </si>
   <si>
-    <t>Details and position information for a physical place</t>
-  </si>
-  <si>
-    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
+    <t>Item used in healthcare</t>
+  </si>
+  <si>
+    <t>A type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity. The device may be a medical or non-medical device.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>.Role[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>Location.id</t>
+    <t>Device.id</t>
   </si>
   <si>
     <t>1</t>
@@ -178,7 +178,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>Location.meta</t>
+    <t>Device.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -198,7 +198,7 @@
 </t>
   </si>
   <si>
-    <t>Location.implicitRules</t>
+    <t>Device.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -217,7 +217,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>Location.language</t>
+    <t>Device.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -245,7 +245,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>Location.text</t>
+    <t>Device.text</t>
   </si>
   <si>
     <t>narrative
@@ -271,7 +271,7 @@
     <t>Act.text?</t>
   </si>
   <si>
-    <t>Location.contained</t>
+    <t>Device.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -297,7 +297,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Location.extension</t>
+    <t>Device.extension</t>
   </si>
   <si>
     <t>extensions
@@ -324,7 +324,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Location.modifierExtension</t>
+    <t>Device.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -340,20 +340,20 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>Location.identifier</t>
+    <t>Device.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.</t>
+    <t>Instance identifier</t>
+  </si>
+  <si>
+    <t>Unique instance identifiers assigned to a device by manufacturers other organizations or owners.</t>
+  </si>
+  <si>
+    <t>The barcode string from a barcode present on a device label or package may identify the instance, include names given to the device in local usage, or may identify the type of device. If the identifier identifies the type of device, Device.type element should be used.</t>
   </si>
   <si>
     <t>.id</t>
@@ -362,22 +362,236 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
+    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
+  </si>
+  <si>
+    <t>Device.definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DeviceDefinition)
+</t>
+  </si>
+  <si>
+    <t>The reference to the definition for the device</t>
+  </si>
+  <si>
+    <t>The reference to the definition for the device.</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Unique Device Identifier (UDI) Barcode string</t>
+  </si>
+  <si>
+    <t>Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
+  </si>
+  <si>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+  </si>
+  <si>
+    <t>.id and .code</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.deviceIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI
+</t>
+  </si>
+  <si>
+    <t>Mandatory fixed portion of UDI</t>
+  </si>
+  <si>
+    <t>The device identifier (DI) is a mandatory, fixed portion of a UDI that identifies the labeler and the specific version or model of a device.</t>
+  </si>
+  <si>
+    <t>Role.id.extension</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>The device identifier (DI), a mandatory, fixed portion of a UDI that identifies the labeler and the specific version or model of a device.</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode System
+</t>
+  </si>
+  <si>
+    <t>UDI Issuing Organization</t>
+  </si>
+  <si>
+    <t>Organization that is charged with issuing UDIs for devices.  For example, the US FDA issuers include :
+1) GS1: 
+http://hl7.org/fhir/NamingSystem/gs1-di, 
+2) HIBCC:
+http://hl7.org/fhir/NamingSystem/hibcc-dI, 
+3) ICCBBA for blood containers:
+http://hl7.org/fhir/NamingSystem/iccbba-blood-di, 
+4) ICCBA for other devices:
+http://hl7.org/fhir/NamingSystem/iccbba-other-di.</t>
+  </si>
+  <si>
+    <t>Role.id.root</t>
+  </si>
+  <si>
+    <t>All UDIs are to be issued under a system operated by an Jurisdiction-accredited issuing agency.
+GS1 DIs: 
+ http://hl7.org/fhir/NamingSystem/gs1
+HIBCC DIs:
+ http://hl7.org/fhir/NamingSystem/hibcc
+ICCBBA DIs for blood containers:
+ http://hl7.org/fhir/NamingSystem/iccbba-blood
+ICCBA DIs for other devices:
+ http://hl7.org/fhir/NamingSystem/iccbba-other</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.jurisdiction</t>
+  </si>
+  <si>
+    <t>Regional UDI authority</t>
+  </si>
+  <si>
+    <t>The identity of the authoritative source for UDI generation within a  jurisdiction.  All UDIs are globally unique within a single namespace with the appropriate repository uri as the system.  For example,  UDIs of devices managed in the U.S. by the FDA, the value is  http://hl7.org/fhir/NamingSystem/fda-udi.</t>
+  </si>
+  <si>
+    <t>Allows a recipient of a UDI to know which database will contain the UDI-associated metadata.</t>
+  </si>
+  <si>
+    <t>Role.scoper</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.carrierAIDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Identification and Data Capture
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>UDI Machine Readable Barcode String</t>
+  </si>
+  <si>
+    <t>The full UDI carrier of the Automatic Identification and Data Capture (AIDC) technology representation of the barcode string as printed on the packaging of the device - e.g., a barcode or RFID.   Because of limitations on character sets in XML and the need to round-trip JSON data through XML, AIDC Formats *SHALL* be base64 encoded.</t>
+  </si>
+  <si>
+    <t>The AIDC form of UDIs should be scanned or otherwise used for the identification of the device whenever possible to minimize errors in records resulting from manual transcriptions. If separate barcodes for DI and PI are present, concatenate the string with DI first and in order of human readable expression on label.</t>
+  </si>
+  <si>
+    <t>A unique device identifier (UDI) on a device label a form that uses automatic identification and data capture (AIDC) technology.</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.carrierHRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Readable Form
+</t>
+  </si>
+  <si>
+    <t>UDI Human Readable Barcode String</t>
+  </si>
+  <si>
+    <t>The full UDI carrier as the human readable form (HRF) representation of the barcode string as printed on the packaging of the device.</t>
+  </si>
+  <si>
+    <t>If separate barcodes for DI and PI are present, concatenate the string with DI first and in order of human readable expression on label.</t>
+  </si>
+  <si>
+    <t>A unique device identifier (UDI) on a device label in plain text</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.entryType</t>
+  </si>
+  <si>
+    <t>barcode | rfid | manual +</t>
+  </si>
+  <si>
+    <t>A coded entry to indicate how the data was entered.</t>
+  </si>
+  <si>
+    <t>Supports a way to distinguish hand entered from machine read data.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+    <t>Codes to identify how UDI data was entered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/udi-entry-type|4.0.1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Device.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Status of the Device availability.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the device (record)as not currently valid.</t>
+  </si>
+  <si>
+    <t>The availability status of the device.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-status|4.0.1</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -386,412 +600,472 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.name</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans. Does not need to be unique.</t>
-  </si>
-  <si>
-    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>Location.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the location was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Location.description</t>
-  </si>
-  <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the Location, which helps in finding or referencing the place.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct location has been identified.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
-  </si>
-  <si>
-    <t>Location.mode</t>
-  </si>
-  <si>
-    <t>instance | kind</t>
-  </si>
-  <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
-  </si>
-  <si>
-    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
-  </si>
-  <si>
-    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC].determinerCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Location.type</t>
+    <t>Device.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Type of function performed</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.</t>
+    <t>online | paused | standby | offline | not-ready | transduc-discon | hw-discon | off</t>
+  </si>
+  <si>
+    <t>Reason for the dtatus of the Device availability.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
+    <t>The availability status reason of the device.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+  </si>
+  <si>
+    <t>Device.distinctIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinct Identification Code (DIC)
+</t>
+  </si>
+  <si>
+    <t>The distinct identification string</t>
+  </si>
+  <si>
+    <t>The distinct identification string as required by regulation for a human cell, tissue, or cellular and tissue-based product.</t>
+  </si>
+  <si>
+    <t>For example, this applies to devices in the United States regulated under *Code of Federal Regulation 21CFR§1271.290(c)*.</t>
+  </si>
+  <si>
+    <t>.lotNumberText</t>
+  </si>
+  <si>
+    <t>The lot or batch number within which a device was manufactured - which is a component of the production identifier (PI), a conditional, variable portion of a UDI.</t>
+  </si>
+  <si>
+    <t>Device.manufacturer</t>
+  </si>
+  <si>
+    <t>Name of device manufacturer</t>
+  </si>
+  <si>
+    <t>A name of the manufacturer.</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=MANU].scoper.name</t>
+  </si>
+  <si>
+    <t>Device.manufactureDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date when the device was made</t>
+  </si>
+  <si>
+    <t>The date and time when the device was manufactured.</t>
+  </si>
+  <si>
+    <t>.existenceTime.low</t>
+  </si>
+  <si>
+    <t>The date a specific device was manufactured - which is a component of the production identifier (PI), a conditional, variable portion of a UDI.  For FHIR, The datetime syntax must converted to YYYY-MM-DD[THH:MM:SS].  If hour is present, the minutes and seconds should both be set to “00”.</t>
+  </si>
+  <si>
+    <t>Device.expirationDate</t>
+  </si>
+  <si>
+    <t>Date and time of expiry of this device (if applicable)</t>
+  </si>
+  <si>
+    <t>The date and time beyond which this device is no longer valid or should not be used (if applicable).</t>
+  </si>
+  <si>
+    <t>.expirationTime</t>
+  </si>
+  <si>
+    <t>the expiration date of a specific device -  which is a component of the production identifier (PI), a conditional, variable portion of a UDI.  For FHIR, The datetime syntax must converted to YYYY-MM-DD[THH:MM:SS].  If hour is present, the minutes and seconds should both be set to “00”.</t>
+  </si>
+  <si>
+    <t>Device.lotNumber</t>
+  </si>
+  <si>
+    <t>Lot number of manufacture</t>
+  </si>
+  <si>
+    <t>Lot number assigned by the manufacturer.</t>
+  </si>
+  <si>
+    <t>Device.serialNumber</t>
+  </si>
+  <si>
+    <t>Serial number assigned by the manufacturer</t>
+  </si>
+  <si>
+    <t>The serial number assigned by the organization when the device was manufactured.</t>
+  </si>
+  <si>
+    <t>Alphanumeric Maximum 20.</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=MANU].id</t>
+  </si>
+  <si>
+    <t>Device.deviceName</t>
+  </si>
+  <si>
+    <t>The name of the device as given by the manufacturer</t>
+  </si>
+  <si>
+    <t>This represents the manufacturer's name of the device as provided by the device, from a UDI label, or by a person describing the Device.  This typically would be used when a person provides the name(s) or when the device represents one of the names available from DeviceDefinition.</t>
+  </si>
+  <si>
+    <t>Device.deviceName.id</t>
+  </si>
+  <si>
+    <t>Device.deviceName.extension</t>
+  </si>
+  <si>
+    <t>Device.deviceName.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.deviceName.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Σ
+</t>
+  </si>
+  <si>
+    <t>The name of the device</t>
+  </si>
+  <si>
+    <t>The name of the device.</t>
+  </si>
+  <si>
+    <t>Device.deviceName.type</t>
+  </si>
+  <si>
+    <t>udi-label-name | user-friendly-name | patient-reported-name | manufacturer-name | model-name | other</t>
+  </si>
+  <si>
+    <t>The type of deviceName.
+UDILabelName | UserFriendlyName | PatientReportedName | ManufactureDeviceName | ModelName.</t>
+  </si>
+  <si>
+    <t>The type of name the device is referred by.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-nametype|4.0.1</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=MANU].code</t>
+  </si>
+  <si>
+    <t>Device.modelNumber</t>
+  </si>
+  <si>
+    <t>The model number for the device</t>
+  </si>
+  <si>
+    <t>The model number for the device.</t>
+  </si>
+  <si>
+    <t>.softwareName (included as part)</t>
+  </si>
+  <si>
+    <t>Device.partNumber</t>
+  </si>
+  <si>
+    <t>The part number of the device</t>
+  </si>
+  <si>
+    <t>The part number of the device.</t>
+  </si>
+  <si>
+    <t>Device.type</t>
+  </si>
+  <si>
+    <t>The kind or type of device</t>
+  </si>
+  <si>
+    <t>The kind or type of device.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to identify medical devices.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t>Device.specialization</t>
+  </si>
+  <si>
+    <t>The capabilities supported on a  device, the standards to which the device conforms for a particular purpose, and used for the communication</t>
+  </si>
+  <si>
+    <t>The capabilities supported on a  device, the standards to which the device conforms for a particular purpose, and used for the communication.</t>
+  </si>
+  <si>
+    <t>Device.specialization.id</t>
+  </si>
+  <si>
+    <t>Device.specialization.extension</t>
+  </si>
+  <si>
+    <t>Device.specialization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.specialization.systemType</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>Device.specialization.version</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>Device.version</t>
+  </si>
+  <si>
+    <t>The actual design of the device or software version running on the device</t>
+  </si>
+  <si>
+    <t>The actual design of the device or software version running on the device.</t>
+  </si>
+  <si>
+    <t>Device.version.id</t>
+  </si>
+  <si>
+    <t>Device.version.extension</t>
+  </si>
+  <si>
+    <t>Device.version.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.version.type</t>
+  </si>
+  <si>
+    <t>The type of the device version</t>
+  </si>
+  <si>
+    <t>The type of the device version.</t>
+  </si>
+  <si>
+    <t>Device.version.component</t>
+  </si>
+  <si>
+    <t>A single component of the device version</t>
+  </si>
+  <si>
+    <t>A single component of the device version.</t>
+  </si>
+  <si>
+    <t>Device.version.value</t>
+  </si>
+  <si>
+    <t>The version text</t>
+  </si>
+  <si>
+    <t>The version text.</t>
+  </si>
+  <si>
+    <t>Device.property</t>
+  </si>
+  <si>
+    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties</t>
+  </si>
+  <si>
+    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties.</t>
+  </si>
+  <si>
+    <t>Device.property.id</t>
+  </si>
+  <si>
+    <t>Device.property.extension</t>
+  </si>
+  <si>
+    <t>Device.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.property.type</t>
+  </si>
+  <si>
+    <t>Code that specifies the property DeviceDefinitionPropetyCode (Extensible)</t>
+  </si>
+  <si>
+    <t>Code that specifies the property DeviceDefinitionPropetyCode (Extensible).</t>
+  </si>
+  <si>
+    <t>Device.property.valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Property value as a quantity</t>
+  </si>
+  <si>
+    <t>Property value as a quantity.</t>
+  </si>
+  <si>
+    <t>Device.property.valueCode</t>
+  </si>
+  <si>
+    <t>Property value as a code, e.g., NTP4 (synced to NTP)</t>
+  </si>
+  <si>
+    <t>Property value as a code, e.g., NTP4 (synced to NTP).</t>
+  </si>
+  <si>
+    <t>Device.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Patient to whom Device is affixed</t>
+  </si>
+  <si>
+    <t>Patient information, If the device is affixed to a person.</t>
+  </si>
+  <si>
+    <t>If the device is implanted in a patient, then need to associate the device to the patient.</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=USED].scoper.playedRole[typeCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Device.owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization responsible for device</t>
+  </si>
+  <si>
+    <t>An organization that is responsible for the provision and ongoing maintenance of the device.</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=OWN].scoper</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Device.contact</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Physical location</t>
-  </si>
-  <si>
-    <t>Physical location.</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
-  </si>
-  <si>
-    <t>If locations can be visited, we need to keep track of their address.</t>
-  </si>
-  <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>Location.physicalType</t>
-  </si>
-  <si>
-    <t>Physical form of the location</t>
-  </si>
-  <si>
-    <t>Physical form of the location, e.g. building, room, vehicle, road.</t>
-  </si>
-  <si>
-    <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Physical form of the location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
-  </si>
-  <si>
-    <t>.playingEntity [classCode=PLC].code</t>
-  </si>
-  <si>
-    <t>Location.position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>The absolute geographic location</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.</t>
-  </si>
-  <si>
-    <t>.playingEntity [classCode=PLC determinerCode=INSTANCE].positionText</t>
-  </si>
-  <si>
-    <t>Location.position.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Location.position.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.position.longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Longitude with WGS84 datum</t>
-  </si>
-  <si>
-    <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
-  </si>
-  <si>
-    <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
-  </si>
-  <si>
-    <t>Location.position.latitude</t>
-  </si>
-  <si>
-    <t>Latitude with WGS84 datum</t>
-  </si>
-  <si>
-    <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
-  </si>
-  <si>
-    <t>Location.position.altitude</t>
-  </si>
-  <si>
-    <t>Altitude with WGS84 datum</t>
-  </si>
-  <si>
-    <t>Altitude. The value domain and the interpretation are the same as for the text of the altitude element in KML (see notes below).</t>
-  </si>
-  <si>
-    <t>Location.managingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization responsible for provisioning and upkeep</t>
-  </si>
-  <si>
-    <t>The organization responsible for the provisioning and upkeep of the location.</t>
-  </si>
-  <si>
-    <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.</t>
-  </si>
-  <si>
-    <t>Need to know who manages the location.</t>
-  </si>
-  <si>
-    <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Location.partOf</t>
+    <t>Details for human/organization for support</t>
+  </si>
+  <si>
+    <t>Contact details for an organization or a particular human that is responsible for the device.</t>
+  </si>
+  <si>
+    <t>used for troubleshooting etc.</t>
+  </si>
+  <si>
+    <t>.scopedRole[typeCode=CON].player</t>
+  </si>
+  <si>
+    <t>Device.location</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t>Another Location this one is physically a part of</t>
-  </si>
-  <si>
-    <t>Another Location of which this Location is physically a part of.</t>
-  </si>
-  <si>
-    <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
-  </si>
-  <si>
-    <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation</t>
-  </si>
-  <si>
-    <t>What days/times during a week is this location usually open</t>
-  </si>
-  <si>
-    <t>What days/times during a week is this location usually open.</t>
-  </si>
-  <si>
-    <t>This type of information is commonly found published in directories and on websites informing customers when the facility is available.
-Specific services within the location may have their own hours which could be shorter (or longer) than the locations hours.</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.id</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.extension</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.daysOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>Indicates which days of the week are available between the start and end Times.</t>
-  </si>
-  <si>
-    <t>The days of the week.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.allDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Where the device is found</t>
+  </si>
+  <si>
+    <t>The place where the device can be found.</t>
+  </si>
+  <si>
+    <t>Device.location can be used to track device location.</t>
+  </si>
+  <si>
+    <t>.playedRole[typeCode=LOCE].scoper</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Device.url</t>
+  </si>
+  <si>
+    <t>Network address to contact device</t>
+  </si>
+  <si>
+    <t>A network address on which the device may be contacted directly.</t>
+  </si>
+  <si>
+    <t>If the device is running a FHIR server, the network address should  be the Base URL from which a conformance statement may be retrieved.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>Device.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>The Location is open all day</t>
-  </si>
-  <si>
-    <t>The Location is open all day.</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.openingTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
+    <t>Device notes and comments</t>
+  </si>
+  <si>
+    <t>Descriptive information, usage information or implantation information that is not captured in an existing element.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Device.safety</t>
+  </si>
+  <si>
+    <t>Safety Characteristics of Device</t>
+  </si>
+  <si>
+    <t>Provides additional safety characteristics about a medical device.  For example devices containing latex.</t>
+  </si>
+  <si>
+    <t>Device.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
-    <t>Time that the Location opens</t>
-  </si>
-  <si>
-    <t>Time that the Location opens.</t>
-  </si>
-  <si>
-    <t>Location.hoursOfOperation.closingTime</t>
-  </si>
-  <si>
-    <t>Time that the Location closes</t>
-  </si>
-  <si>
-    <t>Time that the Location closes.</t>
-  </si>
-  <si>
-    <t>Location.availabilityExceptions</t>
-  </si>
-  <si>
-    <t>Description of availability exceptions</t>
-  </si>
-  <si>
-    <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.</t>
-  </si>
-  <si>
-    <t>Location.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the location</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the location.</t>
-  </si>
-  <si>
-    <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t>The parent device</t>
+  </si>
+  <si>
+    <t>The parent device.</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -949,9 +1223,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="38.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -959,7 +1233,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -972,20 +1246,21 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="41.02734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.9140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.77734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="66.3671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="58.85546875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1100,108 +1375,114 @@
       <c r="AK1" t="s" s="1">
         <v>36</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="AF2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -1210,20 +1491,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>47</v>
@@ -1242,71 +1523,74 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1315,20 +1599,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>47</v>
@@ -1345,71 +1629,74 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -1418,17 +1705,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>47</v>
@@ -1450,71 +1737,74 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1523,23 +1813,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>66</v>
@@ -1555,26 +1845,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>70</v>
@@ -1586,40 +1876,43 @@
         <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1632,19 +1925,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>76</v>
@@ -1660,62 +1953,62 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>58</v>
@@ -1724,7 +2017,10 @@
         <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1737,19 +2033,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>84</v>
@@ -1765,71 +2061,74 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -1842,19 +2141,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>92</v>
@@ -1870,62 +2169,62 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>97</v>
@@ -1934,7 +2233,10 @@
         <v>89</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1947,19 +2249,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>92</v>
@@ -1977,62 +2279,62 @@
         <v>101</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>97</v>
@@ -2041,7 +2343,10 @@
         <v>89</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2050,23 +2355,23 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>104</v>
@@ -2077,67 +2382,67 @@
       <c r="L11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>107</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>58</v>
@@ -2147,1367 +2452,1405 @@
       </c>
       <c r="AK11" t="s" s="2">
         <v>109</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>147</v>
+        <v>39</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>147</v>
+        <v>39</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>164</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -3520,22 +3863,22 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>190</v>
@@ -3544,811 +3887,827 @@
         <v>191</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>194</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>209</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>194</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="M30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M31" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4356,19 +4715,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>92</v>
@@ -4377,97 +4736,100 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>95</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>47</v>
@@ -4479,10 +4841,10 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>95</v>
@@ -4491,62 +4853,62 @@
         <v>101</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
@@ -4555,35 +4917,38 @@
         <v>89</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>226</v>
@@ -4594,174 +4959,180 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -4770,101 +5141,104 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -4873,26 +5247,26 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>239</v>
@@ -4900,74 +5274,79 @@
       <c r="L38" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -4976,26 +5355,26 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>242</v>
@@ -5006,180 +5385,3072 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>241</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>38</v>
+      <c r="AF41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK40">
+  <autoFilter ref="A1:AL67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5189,7 +8460,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
